--- a/参考資料/firebase.xlsx
+++ b/参考資料/firebase.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Desktop\php-for-android-firebase-notification\参考資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{21C5E66F-7D02-4AC8-B8C8-8F05CC1D91FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF93E43-A74C-49FE-9706-DBA743E9209C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,55 +996,6 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>224028</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>46339</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A32F680-A830-4BD8-9A83-6838F0488E21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="36571428" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1349,12 +1299,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="Q422" sqref="Q422"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1371,16 +1319,199 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B742B7C413A0C44D8D123CB1ED143E31" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52dbfaedfabb83f55606f1f19da664c0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd81839b-0946-4c0b-8c9f-38b7545f6b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1aa544c6d64394179f63dfa6d115867" ns2:_="">
+    <xsd:import namespace="bd81839b-0946-4c0b-8c9f-38b7545f6b39"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd81839b-0946-4c0b-8c9f-38b7545f6b39" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1306699D-66CB-4FE6-A56C-92631B6CA6AC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC9FFB12-1DCF-4090-91A1-9F070A30EB4B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D50A5E52-205F-421F-8E4A-D845DD4D09B1}"/>
 </file>